--- a/Flujo/input/Datos_apuesta.xlsx
+++ b/Flujo/input/Datos_apuesta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Admin\Codigo-Gatito\Flujo\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD5E597-020C-4183-B3DF-6381D808C24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD9125F-B461-4624-AE7A-4FCB5F213E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="795" windowWidth="19335" windowHeight="10005" xr2:uid="{7F3439B2-EA05-49D9-B20C-96ED1A04D945}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{7F3439B2-EA05-49D9-B20C-96ED1A04D945}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Descripcion</t>
   </si>
@@ -44,16 +44,13 @@
     <t>Cuota</t>
   </si>
   <si>
-    <t>Gana Equipo A</t>
+    <t>Gana Japón</t>
   </si>
   <si>
-    <t>Empate en Partido C</t>
+    <t>Gana Brasil</t>
   </si>
   <si>
-    <t xml:space="preserve">Gana Equipo B </t>
-  </si>
-  <si>
-    <t>ProbReal</t>
+    <t>Empata Francia</t>
   </si>
 </sst>
 </file>
@@ -425,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A74540-BB5F-45C3-9AC3-0C6874BA1A6C}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,48 +433,36 @@
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1.85</v>
-      </c>
-      <c r="C2">
-        <v>0.33</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>2.4</v>
-      </c>
-      <c r="C3">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
       <c r="B4">
-        <v>3.1</v>
-      </c>
-      <c r="C4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
